--- a/src/assets/prueba.xlsx
+++ b/src/assets/prueba.xlsx
@@ -1,71 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Aprendizajes\Automatizar\python\excel\src\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63390DA-E14E-49C2-9CD5-DC9438AD8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D51C8486-B1CD-4D70-B003-95A82E514AE8}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>Sitios</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Es principal</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,25 +61,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,248 +438,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D83F77-E04F-48DC-A204-C13389269024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NIT</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sitios</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>COD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Es principal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Nombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>7217146</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n">
         <v>121320</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>11330092</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n">
         <v>120491</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>11330092</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
         <v>60122</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>11330092</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n">
         <v>64749</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>12097982</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="2" t="n">
         <v>67082</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>12097982</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="D7" s="2" t="n">
         <v>161748</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>17196003</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="2" t="n">
         <v>146206</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>17326674</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n"/>
+      <c r="D9" s="2" t="n">
         <v>178401</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>19401936</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n">
         <v>58737</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>19401936</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n">
         <v>54654</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>26534757</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n">
         <v>30996</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>28717036</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="n"/>
+      <c r="D13" s="2" t="n">
         <v>117333</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>83089056</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2">
+      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="2" t="n"/>
+      <c r="D14" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>93357227</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="2" t="n"/>
+      <c r="D15" s="2" t="n">
         <v>68642</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>93357227</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2">
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="n"/>
+      <c r="D16" s="2" t="n">
         <v>92841</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>93357227</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="B17" s="2" t="n"/>
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n">
         <v>116611</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>93357227</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="B18" s="2" t="n"/>
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n">
         <v>104745</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>93357227</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="B19" s="2" t="n"/>
+      <c r="C19" s="2" t="n"/>
+      <c r="D19" s="2" t="n">
         <v>101489</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/prueba.xlsx
+++ b/src/assets/prueba.xlsx
@@ -9,7 +9,7 @@
     <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -443,10 +443,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -735,6 +735,174 @@
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>93357227</v>
+      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n"/>
+      <c r="D20" s="2" t="n">
+        <v>134081</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>93357227</v>
+      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="n"/>
+      <c r="D21" s="2" t="n">
+        <v>159393</v>
+      </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>93402123</v>
+      </c>
+      <c r="B22" s="2" t="n"/>
+      <c r="C22" s="2" t="n"/>
+      <c r="D22" s="2" t="n">
+        <v>105383</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>800008151</v>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n"/>
+      <c r="D23" s="2" t="n">
+        <v>142407</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>800110570</v>
+      </c>
+      <c r="B24" s="2" t="n"/>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n">
+        <v>92460</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>800123399</v>
+      </c>
+      <c r="B25" s="2" t="n"/>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n">
+        <v>97133</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>800130426</v>
+      </c>
+      <c r="B26" s="2" t="n"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n">
+        <v>113975</v>
+      </c>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>800130426</v>
+      </c>
+      <c r="B27" s="2" t="n"/>
+      <c r="C27" s="2" t="n"/>
+      <c r="D27" s="2" t="n">
+        <v>142412</v>
+      </c>
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>800130426</v>
+      </c>
+      <c r="B28" s="2" t="n"/>
+      <c r="C28" s="2" t="n"/>
+      <c r="D28" s="2" t="n">
+        <v>79402</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>800130426</v>
+      </c>
+      <c r="B29" s="2" t="n"/>
+      <c r="C29" s="2" t="n"/>
+      <c r="D29" s="2" t="n">
+        <v>171078</v>
+      </c>
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>800153144</v>
+      </c>
+      <c r="B30" s="2" t="n"/>
+      <c r="C30" s="2" t="n"/>
+      <c r="D30" s="2" t="n">
+        <v>52063</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>800153144</v>
+      </c>
+      <c r="B31" s="2" t="n"/>
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n">
+        <v>53128</v>
+      </c>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/prueba.xlsx
+++ b/src/assets/prueba.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Aprendizajes\Automatizar\python\excel\src\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C500BCF2-5404-4E90-86A4-BC9AC9A7FF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>Sitios</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Es principal</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,84 +86,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,470 +404,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NIT</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sitios</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>COD</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Es principal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>7217146</v>
       </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>121320</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>11330092</v>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
         <v>120491</v>
       </c>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>11330092</v>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>60122</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>11330092</v>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
         <v>64749</v>
       </c>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>12097982</v>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
         <v>67082</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>12097982</v>
       </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
         <v>161748</v>
       </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>17196003</v>
       </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>146206</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>17326674</v>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
         <v>178401</v>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>19401936</v>
       </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
         <v>58737</v>
       </c>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>19401936</v>
       </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
         <v>54654</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>26534757</v>
       </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
         <v>30996</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>28717036</v>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>117333</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>83089056</v>
       </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <v>33390</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>93357227</v>
       </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <v>68642</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>93357227</v>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>92841</v>
       </c>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>93357227</v>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2">
         <v>116611</v>
       </c>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>93357227</v>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>104745</v>
       </c>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>93357227</v>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
         <v>101489</v>
       </c>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>93357227</v>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
         <v>134081</v>
       </c>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>93357227</v>
       </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
         <v>159393</v>
       </c>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>93402123</v>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
         <v>105383</v>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>800008151</v>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>142407</v>
       </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>800110570</v>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>92460</v>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>800123399</v>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <v>97133</v>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>800130426</v>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>113975</v>
       </c>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>800130426</v>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>142412</v>
       </c>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>800130426</v>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>79402</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>800130426</v>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>171078</v>
       </c>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>800153144</v>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <v>52063</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>800153144</v>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
         <v>53128</v>
       </c>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
